--- a/biology/Médecine/Artère_massétérique/Artère_massétérique.xlsx
+++ b/biology/Médecine/Artère_massétérique/Artère_massétérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+          <t>Artère_massétérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère massétérique est une branche du deuxième segment de l'artère maxillaire. Elle vascularise le muscle masséter.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+          <t>Artère_massétérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-L'artère massétérique naît du deuxième segment de l'artère maxillaire, elle-même issue du système carotidien externe.
-Trajet
-Elle passe par l'incisure mandibulaire de la mandibule, accompagnée par le nerf massétérique issu du nerf mandibulaire (V3).
-Terminaison
-Elle s'anastomose avec des branches de l'artère transverse de la face pour vasculariser muscle masséter.
-Variation anatomique
-Il existe une importante variabilité dans la localisation de l'artère massétérique. Elle peut parfois être très proche du col de l'apophyse condylienne ou de l'apophyse coronoïde (structures osseuses de la mandibule)[1]. Cette artère est aussi parfois absente[2].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère massétérique naît du deuxième segment de l'artère maxillaire, elle-même issue du système carotidien externe.
 </t>
         </is>
       </c>
@@ -531,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+          <t>Artère_massétérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description anatomique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle vascularise le muscle masséter servant à la mastication.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle passe par l'incisure mandibulaire de la mandibule, accompagnée par le nerf massétérique issu du nerf mandibulaire (V3).
 </t>
         </is>
       </c>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+          <t>Artère_massétérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +594,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'anastomose avec des branches de l'artère transverse de la face pour vasculariser muscle masséter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artère_massétérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variation anatomique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une importante variabilité dans la localisation de l'artère massétérique. Elle peut parfois être très proche du col de l'apophyse condylienne ou de l'apophyse coronoïde (structures osseuses de la mandibule). Cette artère est aussi parfois absente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artère_massétérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vascularise le muscle masséter servant à la mastication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Artère_massétérique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_mass%C3%A9t%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle peut être facilement endommagée lors des ostéotomies intra-orales de la branche verticale[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut être facilement endommagée lors des ostéotomies intra-orales de la branche verticale.
 </t>
         </is>
       </c>
